--- a/generated_docs/WR_89708709_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89708709_WeekEnding_071325.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/31/2025 08:47 AM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
